--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -122,7 +122,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -237,7 +236,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -369,7 +367,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -501,7 +498,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -631,7 +627,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -695,11 +690,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582559312"/>
-        <c:axId val="582560096"/>
+        <c:axId val="102297048"/>
+        <c:axId val="102296264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="582559312"/>
+        <c:axId val="102297048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582560096"/>
+        <c:crossAx val="102296264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -764,7 +759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="582560096"/>
+        <c:axId val="102296264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,7 +802,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582559312"/>
+        <c:crossAx val="102297048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,7 +816,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -909,10 +903,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.3394471838362073E-2"/>
+          <c:x val="9.2857087629997448E-2"/>
           <c:y val="0.10686514185726784"/>
-          <c:w val="0.92723699249314573"/>
-          <c:h val="0.85516610423697037"/>
+          <c:w val="0.87185969324671786"/>
+          <c:h val="0.75542048846947563"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1352,11 +1346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="582558920"/>
-        <c:axId val="582558136"/>
+        <c:axId val="102297832"/>
+        <c:axId val="102298224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="582558920"/>
+        <c:axId val="102297832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,12 +1463,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582558136"/>
+        <c:crossAx val="102298224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="582558136"/>
+        <c:axId val="102298224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,7 +1583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582558920"/>
+        <c:crossAx val="102297832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1822,11 +1816,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="487276936"/>
-        <c:axId val="487274584"/>
+        <c:axId val="192892552"/>
+        <c:axId val="192892944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="487276936"/>
+        <c:axId val="192892552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487274584"/>
+        <c:crossAx val="192892944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1947,7 +1941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="487274584"/>
+        <c:axId val="192892944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2054,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487276936"/>
+        <c:crossAx val="192892552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2124,7 +2118,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2261,11 +2254,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="584703120"/>
-        <c:axId val="584715272"/>
+        <c:axId val="192895688"/>
+        <c:axId val="192896080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="584703120"/>
+        <c:axId val="192895688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584715272"/>
+        <c:crossAx val="192896080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2330,7 +2323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="584715272"/>
+        <c:axId val="192896080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +2380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584703120"/>
+        <c:crossAx val="192895688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4696,10 +4689,10 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4722,16 +4715,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119064</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -38085,14 +38078,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
